--- a/data/Final_EIC_BA_Crosscheck.xlsx
+++ b/data/Final_EIC_BA_Crosscheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burl878/Documents/Code/code_repos/nuclear_heat_wave_loads_2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A56069-8C14-7F49-8684-43DC22C88A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4513B0-CADE-9D4B-8FA1-AA5079F415A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26600" yWindow="2980" windowWidth="23420" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
